--- a/Village Panchayat/Nerul Quotation/Prices.xlsx
+++ b/Village Panchayat/Nerul Quotation/Prices.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t xml:space="preserve">Item Description </t>
   </si>
@@ -169,13 +169,29 @@
   </si>
   <si>
     <t>Silicon</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Saket</t>
+  </si>
+  <si>
+    <t>Price Not avilable and item also not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlink Patch Panel UTP Keystone- 29 Port- Unloaded (Cat 5e,Cat 6 &amp;
+Cat 6 A ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlink 8-Ports 10/100/1000Mbps POE + 2-Ports SFP 100/1000Mbps Smart Managed Switch, 65Watts </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,13 +221,30 @@
       <color rgb="FF000000"/>
       <name val="Arial  "/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial  "/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -241,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +329,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -580,36 +637,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="33.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="20.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="22.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:11">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -624,63 +682,72 @@
         <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="21">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="22">
         <v>31456</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
+      <c r="F3" s="23">
+        <v>36000</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="24">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="25">
         <v>3300</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="26">
+        <v>3350</v>
+      </c>
+      <c r="G4" s="25">
         <v>2250</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -696,34 +763,40 @@
       <c r="E5" s="3">
         <v>11330</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="19">
+        <v>11000</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5">
+    <row r="6" spans="1:11">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
         <v>47500</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="23">
+        <v>45500</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="41.4">
+    <row r="7" spans="1:11" ht="27.6">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -731,22 +804,25 @@
         <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
         <v>8000</v>
       </c>
-      <c r="F7" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="F7" s="19">
+        <v>9500</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I7" s="1">
         <v>10600</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="53.4" customHeight="1">
+    <row r="8" spans="1:11" ht="53.4" customHeight="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -756,37 +832,41 @@
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="3">
         <v>34273</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5">
+    <row r="9" spans="1:11">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="21">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="22">
         <v>2420</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="23">
+        <v>2200</v>
+      </c>
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="41.4">
+    <row r="10" spans="1:11" ht="27.6">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -802,29 +882,35 @@
       <c r="E10" s="3">
         <v>4950</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="19">
+        <v>4500</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1">
+    <row r="11" spans="1:11" s="8" customFormat="1">
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" s="8" customFormat="1">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1">
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.399999999999999" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.399999999999999" customHeight="1">
+      <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -836,13 +922,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="27.6">
+    <row r="15" spans="1:11" ht="27.6">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -859,14 +948,15 @@
         <v>12500</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="3"/>
+      <c r="J15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>3850</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.8" customHeight="1">
+    <row r="16" spans="1:11" ht="13.8" customHeight="1">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -882,20 +972,21 @@
       <c r="E16" s="3">
         <v>3700</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>4000</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>3950</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>3650</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>3850</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="41.4">
+    <row r="17" spans="1:9" ht="27.6">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -911,14 +1002,15 @@
       <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="25.8" customHeight="1">
+    <row r="18" spans="1:9" ht="25.8" customHeight="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -930,37 +1022,43 @@
         <v>5</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6">
+        <v>9500</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A19" s="5">
+    <row r="19" spans="1:9" ht="27.6" customHeight="1">
+      <c r="A19" s="21">
         <v>5</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="21">
         <v>30</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="22">
         <v>125</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="23">
+        <v>110</v>
+      </c>
+      <c r="G19" s="3">
         <v>115</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9" ht="27.6">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -976,63 +1074,70 @@
       <c r="E20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6"/>
+      <c r="G20" s="3">
         <v>7200</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>7100</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>6200</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" ht="27.6">
+      <c r="A21" s="24">
         <v>7</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="25">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="26">
+        <v>400</v>
+      </c>
+      <c r="G21" s="25">
         <v>350</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5">
+    <row r="22" spans="1:9">
+      <c r="A22" s="21">
         <v>8</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="21">
         <v>20</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="22">
         <v>95</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="23">
+        <v>110</v>
+      </c>
+      <c r="G22" s="3">
         <v>118</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="18" t="s">
         <v>2</v>
       </c>
@@ -1043,8 +1148,18 @@
       <c r="D29" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="E29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -1057,8 +1172,15 @@
       <c r="D30" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="E30" s="3">
+        <v>31456</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="6">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -1071,8 +1193,15 @@
       <c r="D31" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="E31" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="6">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="5">
         <v>3</v>
       </c>
@@ -1085,8 +1214,15 @@
       <c r="D32" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="3">
+        <v>11330</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="19">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1099,8 +1235,15 @@
       <c r="D33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="41.4">
+      <c r="E33" s="3">
+        <v>47500</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="6">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="27.6">
       <c r="A34" s="5">
         <v>5</v>
       </c>
@@ -1111,10 +1254,17 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="69">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="19">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="69">
       <c r="A35" s="5">
         <v>6</v>
       </c>
@@ -1125,10 +1275,17 @@
         <v>9</v>
       </c>
       <c r="D35" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>34273</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="5">
         <v>7</v>
       </c>
@@ -1141,8 +1298,15 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="41.4">
+      <c r="E36" s="3">
+        <v>2420</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="6">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="27.6">
       <c r="A37" s="5">
         <v>8</v>
       </c>
@@ -1155,28 +1319,35 @@
       <c r="D37" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="3">
+        <v>4950</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="19">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:7">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="18" t="s">
         <v>2</v>
       </c>
@@ -1187,101 +1358,97 @@
       <c r="D41" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="27.6">
+      <c r="E41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="27.6">
       <c r="A42" s="5">
         <v>1</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D42" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="5">
         <v>2</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="41.4">
+        <v>30</v>
+      </c>
+      <c r="E43" s="6">
+        <v>125</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="27.6">
       <c r="A44" s="5">
         <v>3</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="41.4">
+      <c r="E44" s="6">
+        <v>400</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="5">
         <v>4</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5">
-        <v>5</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5">
-        <v>6</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5">
-        <v>7</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="5">
-        <v>20</v>
+      <c r="E45" s="6">
+        <v>95</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1314,11 +1481,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -1505,11 +1672,11 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
@@ -1700,11 +1867,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="17"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -1947,11 +2114,11 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="7"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -2223,11 +2390,11 @@
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="7"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>

--- a/Village Panchayat/Nerul Quotation/Prices.xlsx
+++ b/Village Panchayat/Nerul Quotation/Prices.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="54">
   <si>
     <t xml:space="preserve">Item Description </t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dlink 8-Ports 10/100/1000Mbps POE + 2-Ports SFP 100/1000Mbps Smart Managed Switch, 65Watts </t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Microciti</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,7 +360,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -650,7 +668,7 @@
     <col min="3" max="3" width="67" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="1"/>
@@ -660,12 +678,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
@@ -839,9 +857,7 @@
       <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3">
-        <v>11000</v>
-      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21">
@@ -900,12 +916,12 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="20.399999999999999" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1340,12 +1356,12 @@
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="18" t="s">
@@ -1446,16 +1462,279 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="1:4">
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="28">
+        <v>1</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="28">
+        <v>2</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="28">
+        <v>3</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="28">
+        <v>4</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="27.6">
+      <c r="A68" s="28">
+        <v>5</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="28">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="28">
+        <v>7</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="28">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="27.6">
+      <c r="A74" s="28">
+        <v>1</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="28">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="28">
+        <v>2</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="28">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="27.6">
+      <c r="A76" s="28">
+        <v>3</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="27.6">
+      <c r="A77" s="28">
+        <v>4</v>
+      </c>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="28">
+        <v>5</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="27.6">
+      <c r="A79" s="28">
+        <v>6</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="27.6">
+      <c r="A80" s="28">
+        <v>7</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="28">
+        <v>8</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="28">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A72:D72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1481,11 +1760,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -1672,11 +1951,11 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="20.399999999999999" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
@@ -1867,11 +2146,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="17"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -2114,11 +2393,11 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="7"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -2390,11 +2669,11 @@
       <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="7"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>

--- a/Village Panchayat/Nerul Quotation/Prices.xlsx
+++ b/Village Panchayat/Nerul Quotation/Prices.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="56">
   <si>
     <t xml:space="preserve">Item Description </t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Microciti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlink Patch Panel UTP Keystone- 24 Port- Unloaded (Cat 5e,Cat 6 &amp;Cat 6 A ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlink Patch Panel UTP Keystone- 12 Port- Unloaded (Cat 5e,Cat 6 &amp;Cat 6 A ) </t>
   </si>
 </sst>
 </file>
@@ -658,7 +664,7 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1010,7 +1016,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -1032,7 +1038,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
@@ -2130,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>

--- a/Village Panchayat/Nerul Quotation/Prices.xlsx
+++ b/Village Panchayat/Nerul Quotation/Prices.xlsx
@@ -339,41 +339,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,23 +664,23 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="22.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="72.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="22.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12" style="10" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -692,82 +692,86 @@
       <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="21">
-        <v>4</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="C3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="19">
+        <v>4</v>
+      </c>
+      <c r="E3" s="24">
         <v>31456</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="25">
         <v>36000</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="24">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <v>12</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="26">
         <v>3300</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="27">
         <v>3350</v>
       </c>
-      <c r="G4" s="25">
-        <v>2250</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G4" s="26">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="10">
+        <f>G4*1.18</f>
+        <v>2360</v>
+      </c>
+      <c r="I4" s="10">
         <v>2400</v>
       </c>
     </row>
@@ -784,39 +788,39 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
         <v>11330</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="28">
         <v>11000</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="10">
         <v>3500</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
         <v>47500</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="25">
         <v>45500</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -833,16 +837,16 @@
       <c r="D7" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
         <v>8000</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="28">
         <v>9500</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="12">
         <v>9600</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="10">
         <v>10600</v>
       </c>
     </row>
@@ -857,34 +861,34 @@
         <v>9</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>34273</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="24">
         <v>2420</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="25">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="12">
         <v>3900</v>
       </c>
     </row>
@@ -901,25 +905,25 @@
       <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>4950</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="28">
         <v>4500</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1">
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1">
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+    <row r="11" spans="1:11" s="15" customFormat="1">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" s="15" customFormat="1">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -928,28 +932,28 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -966,15 +970,15 @@
       <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <v>12500</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="J15" s="1" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="J15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="10">
         <v>3850</v>
       </c>
     </row>
@@ -991,24 +995,24 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="12">
         <v>3700</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
         <v>4000</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="10">
         <v>3950</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="10">
         <v>3650</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="10">
         <v>3850</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.6">
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -1021,14 +1025,14 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
         <v>900</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <v>1100</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="10">
         <v>1100</v>
       </c>
     </row>
@@ -1043,40 +1047,40 @@
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6">
+      <c r="E18" s="12"/>
+      <c r="F18" s="14">
         <v>9500</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="10">
         <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.6" customHeight="1">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>5</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>30</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="24">
         <v>125</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="25">
         <v>110</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="12">
         <v>115</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="10">
         <v>110</v>
       </c>
     </row>
@@ -1093,91 +1097,91 @@
       <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="12">
         <v>7800</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3">
+      <c r="F20" s="14"/>
+      <c r="G20" s="12">
         <v>7200</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="10">
         <v>7100</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="10">
         <v>6200</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27.6">
-      <c r="A21" s="24">
+      <c r="A21" s="20">
         <v>7</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26">
         <v>400</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="27">
         <v>400</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="26">
         <v>350</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="21">
+      <c r="A22" s="19">
         <v>8</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>20</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="24">
         <v>95</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="25">
         <v>110</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="12">
         <v>118</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18" t="s">
+    <row r="29" spans="1:9" ht="27.6">
+      <c r="A29" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1194,11 +1198,11 @@
       <c r="D30" s="5">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="12">
         <v>31456</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="6">
+      <c r="F30" s="12"/>
+      <c r="G30" s="14">
         <v>36000</v>
       </c>
     </row>
@@ -1215,11 +1219,11 @@
       <c r="D31" s="5">
         <v>12</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="12">
         <v>3300</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="6">
+      <c r="F31" s="12"/>
+      <c r="G31" s="14">
         <v>3350</v>
       </c>
     </row>
@@ -1236,11 +1240,11 @@
       <c r="D32" s="5">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="12">
         <v>11330</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="19">
+      <c r="F32" s="12"/>
+      <c r="G32" s="28">
         <v>11000</v>
       </c>
     </row>
@@ -1257,11 +1261,11 @@
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="12">
         <v>47500</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="6">
+      <c r="F33" s="12"/>
+      <c r="G33" s="14">
         <v>45500</v>
       </c>
     </row>
@@ -1278,11 +1282,11 @@
       <c r="D34" s="5">
         <v>3</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="12">
         <v>8000</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="19">
+      <c r="F34" s="12"/>
+      <c r="G34" s="28">
         <v>9500</v>
       </c>
     </row>
@@ -1299,11 +1303,11 @@
       <c r="D35" s="5">
         <v>2</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="12">
         <v>34273</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="20" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1320,11 +1324,11 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="12">
         <v>2420</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="6">
+      <c r="F36" s="12"/>
+      <c r="G36" s="14">
         <v>2200</v>
       </c>
     </row>
@@ -1341,25 +1345,25 @@
       <c r="D37" s="5">
         <v>8</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="12">
         <v>4950</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="19">
+      <c r="F37" s="12"/>
+      <c r="G37" s="28">
         <v>4500</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="30" t="s">
@@ -1370,21 +1374,21 @@
       <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18" t="s">
+      <c r="A41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1399,9 +1403,9 @@
       <c r="D42" s="5">
         <v>5</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6">
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14">
         <v>9500</v>
       </c>
     </row>
@@ -1418,11 +1422,11 @@
       <c r="D43" s="5">
         <v>30</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="14">
         <v>125</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6">
+      <c r="F43" s="14"/>
+      <c r="G43" s="14">
         <v>110</v>
       </c>
     </row>
@@ -1439,11 +1443,11 @@
       <c r="D44" s="5">
         <v>1</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="14">
         <v>400</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14">
         <v>400</v>
       </c>
     </row>
@@ -1460,16 +1464,16 @@
       <c r="D45" s="5">
         <v>20</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="14">
         <v>95</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6">
+      <c r="F45" s="14"/>
+      <c r="G45" s="14">
         <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1482,104 +1486,104 @@
       <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27" t="s">
+      <c r="A63" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="28">
-        <v>1</v>
-      </c>
-      <c r="B64" s="28" t="s">
+      <c r="A64" s="21">
+        <v>1</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="28">
+      <c r="C64" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="28">
-        <v>2</v>
-      </c>
-      <c r="B65" s="28" t="s">
+      <c r="A65" s="21">
+        <v>2</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="28">
+      <c r="A66" s="21">
         <v>3</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="28">
-        <v>4</v>
-      </c>
-      <c r="B67" s="28" t="s">
+      <c r="A67" s="21">
+        <v>4</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D67" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27.6">
-      <c r="A68" s="28">
+      <c r="A68" s="21">
         <v>5</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="28">
+      <c r="D68" s="21">
         <v>5</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="28">
+      <c r="A69" s="21">
         <v>7</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D69" s="21">
         <v>10</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1604,133 +1608,133 @@
       <c r="D72" s="31"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27" t="s">
+      <c r="A73" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="27.6">
-      <c r="A74" s="28">
-        <v>1</v>
-      </c>
-      <c r="B74" s="28" t="s">
+      <c r="A74" s="21">
+        <v>1</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="28">
-        <v>4</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="D74" s="21">
+        <v>4</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="28">
-        <v>2</v>
-      </c>
-      <c r="B75" s="28" t="s">
+      <c r="A75" s="21">
+        <v>2</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="28">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="D75" s="21">
+        <v>1</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="27.6">
-      <c r="A76" s="28">
+      <c r="A76" s="21">
         <v>3</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D76" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="27.6">
-      <c r="A77" s="28">
-        <v>4</v>
-      </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28" t="s">
+      <c r="A77" s="21">
+        <v>4</v>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="28">
+      <c r="D77" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="28">
+      <c r="A78" s="21">
         <v>5</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D78" s="21">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="27.6">
-      <c r="A79" s="28">
+      <c r="A79" s="21">
         <v>6</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="27.6">
-      <c r="A80" s="28">
+      <c r="A80" s="21">
         <v>7</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D80" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="28">
+      <c r="A81" s="21">
         <v>8</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D81" s="21">
         <v>20</v>
       </c>
     </row>
